--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/公司员工.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/公司员工.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t xml:space="preserve">员工编码</t>
   </si>
@@ -56,16 +56,64 @@
     <t xml:space="preserve">启用</t>
   </si>
   <si>
+    <t xml:space="preserve">0001436586798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">曹禺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">营销中心</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0002456234739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赵四</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19022536236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都纷薯</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0003545555572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">郑楚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19022659487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">市场二部</t>
+  </si>
+  <si>
     <t xml:space="preserve">0001456454567</t>
   </si>
   <si>
     <t xml:space="preserve">周瑜</t>
   </si>
   <si>
+    <t xml:space="preserve">00023659456951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">芳芳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">营销人员</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18094569236</t>
+  </si>
+  <si>
     <t xml:space="preserve">0001456454577</t>
   </si>
   <si>
     <t xml:space="preserve">杨帆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都和创</t>
   </si>
 </sst>
 </file>
@@ -178,7 +226,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -189,18 +237,102 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4" t="s">
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" t="s">
         <v>13</v>
       </c>
     </row>
